--- a/dmsan/bwaise/results/performance_baseline.xlsx
+++ b/dmsan/bwaise/results/performance_baseline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Score" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rank" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Score" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rank" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,7 +529,7 @@
         <v>0.4513758624979285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8054146422523341</v>
+        <v>0.8054146422523342</v>
       </c>
       <c r="D7" t="n">
         <v>0.3095003412938861</v>
@@ -554,13 +554,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3536669222101481</v>
+        <v>0.353666922210148</v>
       </c>
       <c r="C9" t="n">
         <v>0.7315428633624875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4159291460021751</v>
+        <v>0.415929146002175</v>
       </c>
     </row>
     <row r="10">
@@ -624,13 +624,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3536669222101481</v>
+        <v>0.353666922210148</v>
       </c>
       <c r="C14" t="n">
         <v>0.7315428633624875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4159291460021751</v>
+        <v>0.415929146002175</v>
       </c>
     </row>
     <row r="15">
@@ -680,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4439469179946479</v>
+        <v>0.443946917994648</v>
       </c>
       <c r="C18" t="n">
         <v>0.8296143497585892</v>
@@ -753,7 +753,7 @@
         <v>0.4543313812533656</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8316791941147422</v>
+        <v>0.8316791941147423</v>
       </c>
       <c r="D23" t="n">
         <v>0.3390603014461996</v>
@@ -820,10 +820,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4451766261543992</v>
+        <v>0.4451766261543991</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495852207589799</v>
+        <v>0.4958522075897991</v>
       </c>
       <c r="D28" t="n">
         <v>0.5578078414180456</v>
@@ -854,7 +854,7 @@
         <v>0.7162728512961987</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2837271487038014</v>
+        <v>0.2837271487038013</v>
       </c>
     </row>
     <row r="31">
@@ -865,10 +865,10 @@
         <v>0.6345496244663102</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6187718971473637</v>
+        <v>0.6187718971473638</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3812281028526364</v>
+        <v>0.3812281028526362</v>
       </c>
     </row>
     <row r="32">
@@ -876,7 +876,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1737145013518463</v>
+        <v>0.1737145013518462</v>
       </c>
       <c r="C32" t="n">
         <v>0.632367993492299</v>
@@ -994,7 +994,7 @@
         <v>0.9089338224847276</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09106617751527242</v>
+        <v>0.09106617751527239</v>
       </c>
     </row>
     <row r="41">
@@ -1044,13 +1044,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5784361242838771</v>
+        <v>0.5784361242838773</v>
       </c>
       <c r="C44" t="n">
         <v>0.8627624287841513</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1372375712158487</v>
+        <v>0.1372375712158486</v>
       </c>
     </row>
     <row r="45">
